--- a/bots/crawl_ch/output/vegi_coop_2023-01-15.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-15.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4383,7 +4383,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6178,7 +6178,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6312,7 +6312,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6584,7 +6584,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6848,7 +6848,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -6982,7 +6982,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7254,7 +7254,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7595,7 +7595,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7733,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7798,7 +7798,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7867,7 +7867,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -7936,7 +7936,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8070,7 +8070,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8135,7 +8135,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8204,7 +8204,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8334,7 +8334,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8468,7 +8468,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8537,7 +8537,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8606,7 +8606,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8675,7 +8675,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8809,7 +8809,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8882,7 +8882,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9024,7 +9024,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9093,7 +9093,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9158,7 +9158,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9300,7 +9300,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9369,7 +9369,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9438,7 +9438,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9507,7 +9507,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9649,7 +9649,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9718,7 +9718,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9787,7 +9787,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9856,7 +9856,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9921,7 +9921,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -9990,7 +9990,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10059,7 +10059,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10124,7 +10124,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10258,7 +10258,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10323,7 +10323,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10388,7 +10388,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10457,7 +10457,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10526,7 +10526,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10859,7 +10859,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10924,7 +10924,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -10993,7 +10993,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11062,7 +11062,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11202,7 +11202,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11413,7 +11413,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11482,7 +11482,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11547,7 +11547,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11616,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11685,7 +11685,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11754,7 +11754,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11827,7 +11827,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11900,7 +11900,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12038,7 +12038,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12107,7 +12107,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12176,7 +12176,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12229,7 +12229,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12298,7 +12298,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12367,7 +12367,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12436,7 +12436,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12505,7 +12505,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12574,7 +12574,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12637,7 +12637,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12700,7 +12700,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12773,7 +12773,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12842,7 +12842,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12907,7 +12907,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -12976,7 +12976,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13045,7 +13045,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13114,7 +13114,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13179,7 +13179,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13248,7 +13248,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13532,7 +13532,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13601,7 +13601,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13670,7 +13670,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13739,7 +13739,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13877,7 +13877,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14080,7 +14080,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14222,7 +14222,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14291,7 +14291,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14360,7 +14360,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14411,7 +14411,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14476,7 +14476,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14681,7 +14681,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14880,7 +14880,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -14949,7 +14949,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15091,7 +15091,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15302,7 +15302,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15351,7 +15351,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15416,7 +15416,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15485,7 +15485,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15550,7 +15550,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15615,7 +15615,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15688,7 +15688,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15755,7 +15755,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15824,7 +15824,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15893,7 +15893,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -15958,7 +15958,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16027,7 +16027,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16096,7 +16096,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16165,7 +16165,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16238,7 +16238,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16303,7 +16303,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16372,7 +16372,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16441,7 +16441,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16514,7 +16514,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16587,7 +16587,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16660,7 +16660,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16729,7 +16729,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16798,7 +16798,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16863,7 +16863,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -16932,7 +16932,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17005,7 +17005,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17074,7 +17074,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17145,7 +17145,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17214,7 +17214,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17283,7 +17283,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17356,7 +17356,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17425,7 +17425,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17494,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17713,7 +17713,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17764,7 +17764,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17837,7 +17837,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17910,7 +17910,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -17983,7 +17983,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18056,7 +18056,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18129,7 +18129,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18198,7 +18198,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18267,7 +18267,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18340,7 +18340,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18413,7 +18413,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18482,7 +18482,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18547,7 +18547,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18616,7 +18616,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18689,7 +18689,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18758,7 +18758,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18823,7 +18823,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18892,7 +18892,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -18961,7 +18961,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19030,7 +19030,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19103,7 +19103,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19168,7 +19168,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19233,7 +19233,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19306,7 +19306,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19371,7 +19371,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19444,7 +19444,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19513,7 +19513,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19586,7 +19586,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19659,7 +19659,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19732,7 +19732,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19801,7 +19801,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19866,7 +19866,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19915,7 +19915,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -19980,7 +19980,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20045,7 +20045,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20114,7 +20114,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20183,7 +20183,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20246,7 +20246,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20319,7 +20319,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20384,7 +20384,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20457,7 +20457,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20526,7 +20526,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20599,7 +20599,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20810,7 +20810,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20883,7 +20883,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -20952,7 +20952,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21025,7 +21025,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21094,7 +21094,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21295,7 +21295,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21368,7 +21368,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21433,7 +21433,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21506,7 +21506,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21575,7 +21575,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21648,7 +21648,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21717,7 +21717,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21790,7 +21790,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21863,7 +21863,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -21936,7 +21936,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22001,7 +22001,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22070,7 +22070,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22135,7 +22135,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22208,7 +22208,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22273,7 +22273,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22342,7 +22342,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22415,7 +22415,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22484,7 +22484,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22553,7 +22553,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22626,7 +22626,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22699,7 +22699,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22766,7 +22766,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22819,7 +22819,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22892,7 +22892,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -22965,7 +22965,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23038,7 +23038,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23101,7 +23101,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23174,7 +23174,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23247,7 +23247,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23312,7 +23312,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23381,7 +23381,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23450,7 +23450,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23523,7 +23523,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23592,7 +23592,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23734,7 +23734,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23807,7 +23807,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23872,7 +23872,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -23935,7 +23935,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24004,7 +24004,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24077,7 +24077,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24144,7 +24144,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24209,7 +24209,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24282,7 +24282,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24347,7 +24347,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24416,7 +24416,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24481,7 +24481,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24550,7 +24550,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24623,7 +24623,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24696,7 +24696,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24769,7 +24769,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24842,7 +24842,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -24978,7 +24978,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25049,7 +25049,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25118,7 +25118,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25191,7 +25191,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25264,7 +25264,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25333,7 +25333,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25406,7 +25406,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25475,7 +25475,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25544,7 +25544,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25617,7 +25617,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25690,7 +25690,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25759,7 +25759,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25828,7 +25828,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25901,7 +25901,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -25970,7 +25970,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26043,7 +26043,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26116,7 +26116,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26181,7 +26181,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26250,7 +26250,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26323,7 +26323,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26396,7 +26396,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26465,7 +26465,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26514,7 +26514,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26579,7 +26579,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26652,7 +26652,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26725,7 +26725,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26788,7 +26788,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26861,7 +26861,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -26934,7 +26934,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27007,7 +27007,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27080,7 +27080,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27153,7 +27153,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27226,7 +27226,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27295,7 +27295,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27368,7 +27368,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27441,7 +27441,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27506,7 +27506,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27579,7 +27579,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27652,7 +27652,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27725,7 +27725,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27798,7 +27798,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27871,7 +27871,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -27944,7 +27944,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28017,7 +28017,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28086,7 +28086,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28159,7 +28159,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28232,7 +28232,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28301,7 +28301,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28374,7 +28374,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28447,7 +28447,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28520,7 +28520,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28593,7 +28593,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28666,7 +28666,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28713,7 +28713,7 @@
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28782,7 +28782,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28847,7 +28847,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28920,7 +28920,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -28993,7 +28993,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29066,7 +29066,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29139,7 +29139,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29212,7 +29212,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29285,7 +29285,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29358,7 +29358,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29431,7 +29431,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29504,7 +29504,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29577,7 +29577,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29642,7 +29642,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29707,7 +29707,7 @@
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29772,7 +29772,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29845,7 +29845,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29898,7 +29898,7 @@
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -29969,7 +29969,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30042,7 +30042,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30184,7 +30184,7 @@
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30257,7 +30257,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30330,7 +30330,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30395,7 +30395,7 @@
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30466,7 +30466,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30537,7 +30537,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30608,7 +30608,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30681,7 +30681,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30754,7 +30754,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30827,7 +30827,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30896,7 +30896,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -30969,7 +30969,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31042,7 +31042,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31115,7 +31115,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31184,7 +31184,7 @@
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31249,7 +31249,7 @@
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31320,7 +31320,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31389,7 +31389,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31462,7 +31462,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31515,7 +31515,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31584,7 +31584,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31657,7 +31657,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31728,7 +31728,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31801,7 +31801,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31864,7 +31864,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -31937,7 +31937,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32010,7 +32010,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32079,7 +32079,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32148,7 +32148,7 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32217,7 +32217,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32288,7 +32288,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32361,7 +32361,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32434,7 +32434,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32507,7 +32507,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32580,7 +32580,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32653,7 +32653,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32726,7 +32726,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32791,7 +32791,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32860,7 +32860,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32925,7 +32925,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -32994,7 +32994,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33067,7 +33067,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33136,7 +33136,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33201,7 +33201,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33270,7 +33270,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33317,7 +33317,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33368,7 +33368,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33437,7 +33437,7 @@
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33502,7 +33502,7 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33575,7 +33575,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33648,7 +33648,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33713,7 +33713,7 @@
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33786,7 +33786,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33849,7 +33849,7 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33922,7 +33922,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -33991,7 +33991,7 @@
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34062,7 +34062,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34135,7 +34135,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34202,7 +34202,7 @@
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34267,7 +34267,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34340,7 +34340,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34413,7 +34413,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34486,7 +34486,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34551,7 +34551,7 @@
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34608,7 +34608,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34681,7 +34681,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34754,7 +34754,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34823,7 +34823,7 @@
       <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34896,7 +34896,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -34969,7 +34969,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35034,7 +35034,7 @@
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35107,7 +35107,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35180,7 +35180,7 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35247,7 +35247,7 @@
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35318,7 +35318,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35391,7 +35391,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35464,7 +35464,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35535,7 +35535,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35602,7 +35602,7 @@
       <c r="N511" t="inlineStr"/>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35675,7 +35675,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35746,7 +35746,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35819,7 +35819,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35892,7 +35892,7 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -35961,7 +35961,7 @@
       <c r="N516" t="inlineStr"/>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36034,7 +36034,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36107,7 +36107,7 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36180,7 +36180,7 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36253,7 +36253,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36322,7 +36322,7 @@
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36385,7 +36385,7 @@
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36458,7 +36458,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36529,7 +36529,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36598,7 +36598,7 @@
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36671,7 +36671,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36738,7 +36738,7 @@
       <c r="N527" t="inlineStr"/>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36809,7 +36809,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36880,7 +36880,7 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
@@ -36951,7 +36951,7 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>2023-01-15 06:50:55</t>
+          <t>2023-01-15 12:56:47</t>
         </is>
       </c>
     </row>
